--- a/data/income_statement/2digits/size/71_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/71_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>71-Architectural and engineering activities; technical testing and analysis</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>71-Architectural and engineering activities; technical testing and analysis</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1133 +841,1278 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2652575.941060001</v>
+        <v>2630418.28242</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3238794.61921</v>
+        <v>3242247.89406</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4360403.97028</v>
+        <v>4334120.2643</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5354738.886120001</v>
+        <v>5401258.09086</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7002931.91554</v>
+        <v>6993698.01145</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7831739.892120001</v>
+        <v>7834452.97142</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9055565.655380001</v>
+        <v>9007714.017760001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10894561.66423</v>
+        <v>10864510.00779</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>13832579.68704</v>
+        <v>13870899.7717</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15033393.71823</v>
+        <v>14911778.93532</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>15405773.60202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15278162.11809</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18266477.022</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2426020.29107</v>
+        <v>2401384.25563</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2936130.05858</v>
+        <v>2942024.78302</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3988991.8623</v>
+        <v>3948262.1849</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4770205.309470001</v>
+        <v>4782094.79586</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6312740.91189</v>
+        <v>6260239.56125</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7145816.750240001</v>
+        <v>7093411.93438</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8321038.811190001</v>
+        <v>8235980.15673</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>10110917.38362</v>
+        <v>10055022.50777</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>12757305.36308</v>
+        <v>12753920.28156</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>13741568.7515</v>
+        <v>13629577.74281</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13687034.71172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13512130.71548</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>16261229.458</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>173967.67408</v>
+        <v>176322.98592</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>231485.41214</v>
+        <v>237727.21012</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>247857.60885</v>
+        <v>267791.77207</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>450875.46367</v>
+        <v>476952.23017</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>543718.08318</v>
+        <v>578216.51333</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>544100.23937</v>
+        <v>605092.8689</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>564622.6465599999</v>
+        <v>602710.57787</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>573156.3242200001</v>
+        <v>604103.47306</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>804570.10034</v>
+        <v>845416.08925</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1005762.02959</v>
+        <v>1004176.96583</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1420915.43219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1480036.03068</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1696699.941</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>52587.97591</v>
+        <v>52711.04087</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>71179.14848999999</v>
+        <v>62495.90091999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>123554.49913</v>
+        <v>118066.30733</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>133658.11298</v>
+        <v>142211.06483</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>146472.92047</v>
+        <v>155241.93687</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>141822.90251</v>
+        <v>135948.16814</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>169904.19763</v>
+        <v>169023.28316</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>210487.95639</v>
+        <v>205384.02696</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>270704.22362</v>
+        <v>271563.40089</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>286062.93714</v>
+        <v>278024.22668</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>297823.45811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>285995.37193</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>308547.623</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>25147.58652</v>
+        <v>32692.10352</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>31887.23309</v>
+        <v>39618.4532</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>28271.14474</v>
+        <v>27918.42298</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>33669.77744</v>
+        <v>37974.29191000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>41218.85302</v>
+        <v>44438.61369000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>35162.16034</v>
+        <v>33980.24748999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>43385.49886</v>
+        <v>40229.67337</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>71080.82124999999</v>
+        <v>124480.02006</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>80281.08945</v>
+        <v>76950.47266</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>138345.03971</v>
+        <v>150439.11986</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>403183.55491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>146579.89878</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>271660.443</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>11165.58882</v>
+        <v>18592.18041</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>15719.83792</v>
+        <v>23508.30439</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>15094.13317</v>
+        <v>15194.28611</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>20257.8498</v>
+        <v>21655.16727</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>26643.89371</v>
+        <v>26948.70782</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>18983.81145</v>
+        <v>18142.38797</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>30291.29693</v>
+        <v>27339.71382</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>58100.88636</v>
+        <v>110474.25581</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>59266.94925</v>
+        <v>50814.78780000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>108280.7368</v>
+        <v>120536.22154</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>376060.99856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>121145.50408</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>247083.845</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>12422.67635</v>
+        <v>12546.97226</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>9697.68627</v>
+        <v>9678.50181</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>10511.82542</v>
+        <v>10395.76173</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>11220.49715</v>
+        <v>12428.68446</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>9384.56345</v>
+        <v>9698.05298</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>5139.28213</v>
+        <v>5012.81525</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>6809.910599999999</v>
+        <v>6252.27788</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>7102.11637</v>
+        <v>6768.78</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>10588.19316</v>
+        <v>10617.50409</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>14362.5385</v>
+        <v>14642.18374</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>19043.82187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17451.88427</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>14561.944</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1559.32135</v>
+        <v>1552.95085</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>6469.708900000001</v>
+        <v>6431.647</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2665.18615</v>
+        <v>2328.37514</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2191.43049</v>
+        <v>3890.44018</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5190.39586</v>
+        <v>7791.85289</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>11039.06676</v>
+        <v>10825.04427</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6284.29133</v>
+        <v>6637.68167</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5877.818520000001</v>
+        <v>7236.98425</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>10425.94704</v>
+        <v>15518.18077</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>15701.76441</v>
+        <v>15260.71458</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>8078.73448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7982.510429999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>10014.654</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2627428.35454</v>
+        <v>2597726.1789</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3206907.38612</v>
+        <v>3202629.44086</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4332132.82554</v>
+        <v>4306201.84132</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5321069.108680001</v>
+        <v>5363283.798950001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6961713.06252</v>
+        <v>6949259.397759999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7796577.73178</v>
+        <v>7800472.72393</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>9012180.15652</v>
+        <v>8967484.344389999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10823480.84298</v>
+        <v>10740029.98773</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>13752298.59759</v>
+        <v>13793949.29904</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14895048.67852</v>
+        <v>14761339.81546</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>15002590.04711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15131582.21931</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>17994816.579</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1726092.24172</v>
+        <v>1726255.80642</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2095952.7441</v>
+        <v>2100344.89277</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2883618.30513</v>
+        <v>2865007.71783</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3733010.36461</v>
+        <v>3774158.50533</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4871942.740240001</v>
+        <v>4865446.69023</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5502284.431369999</v>
+        <v>5561786.99333</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6462934.52782</v>
+        <v>6474493.9723</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7927463.99303</v>
+        <v>7912067.639059999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>10311834.06299</v>
+        <v>10412645.58229</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11417414.601</v>
+        <v>11322292.74868</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11567081.03854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11815882.93393</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13760282.043</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>163508.29904</v>
+        <v>156346.71065</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>195995.25227</v>
+        <v>186830.35804</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>258214.74349</v>
+        <v>247454.44271</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>307013.82641</v>
+        <v>298196.84405</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>409290.1808800001</v>
+        <v>396452.8682199999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>562202.56687</v>
+        <v>540957.48733</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>698793.45787</v>
+        <v>698027.29927</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>902299.4911500001</v>
+        <v>863422.30475</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1252839.28768</v>
+        <v>1260710.29871</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1256398.03361</v>
+        <v>1204692.76159</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1520224.35714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1482385.88968</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1721540.486</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>343361.36864</v>
+        <v>329007.66852</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>454817.55174</v>
+        <v>445001.35653</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>692431.24548</v>
+        <v>666286.25648</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>929851.9080800001</v>
+        <v>952352.6140999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1102894.8913</v>
+        <v>1107400.50907</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1196829.07768</v>
+        <v>1216274.95689</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1442158.03712</v>
+        <v>1472903.57665</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1868495.88732</v>
+        <v>1898595.09993</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2873813.32381</v>
+        <v>2904182.94204</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2918281.23013</v>
+        <v>2845065.40577</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2721009.96236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2760760.17587</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3786529.897</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1211087.53806</v>
+        <v>1230674.8895</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1438629.12926</v>
+        <v>1461620.16262</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1925872.39972</v>
+        <v>1944160.74307</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2478687.6647</v>
+        <v>2505977.2534</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3346177.1224</v>
+        <v>3348935.06812</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3657042.27548</v>
+        <v>3719403.509560001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4290092.00822</v>
+        <v>4272804.30575</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5124109.89008</v>
+        <v>5119029.44159</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>6110061.599090001</v>
+        <v>6176432.916470001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7182282.136729999</v>
+        <v>7208161.47988</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7261439.510430001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7504211.77529</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>8180611.835</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>8135.03598</v>
+        <v>10226.53775</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6510.81083</v>
+        <v>6893.01558</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>7099.91644</v>
+        <v>7106.275570000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>17456.96542</v>
+        <v>17631.79378</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>13580.54566</v>
+        <v>12658.24482</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>86210.51133999998</v>
+        <v>85151.03955</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>31891.02461</v>
+        <v>30758.79063</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>32558.72448</v>
+        <v>31020.79279</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>75119.85240999999</v>
+        <v>71319.42507000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>60453.20053</v>
+        <v>64373.10144000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>64407.20861</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>68525.09309000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>71599.825</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>901336.11282</v>
+        <v>871470.37248</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1110954.64202</v>
+        <v>1102284.54809</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1448514.52041</v>
+        <v>1441194.12349</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1588058.74407</v>
+        <v>1589125.29362</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2089770.32228</v>
+        <v>2083812.70753</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2294293.30041</v>
+        <v>2238685.7306</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2549245.6287</v>
+        <v>2492990.37209</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2896016.84995</v>
+        <v>2827962.34867</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3440464.5346</v>
+        <v>3381303.71675</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3477634.07752</v>
+        <v>3439047.06678</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3435509.00857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3315699.28538</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4234534.536</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>570531.0467300001</v>
+        <v>553738.47276</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>689689.4145900001</v>
+        <v>700634.19716</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>866049.12689</v>
+        <v>890266.77362</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>996569.90101</v>
+        <v>1027242.108</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1295011.97695</v>
+        <v>1286413.76386</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1509546.05181</v>
+        <v>1468530.6943</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1711532.37986</v>
+        <v>1650113.40897</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1986446.83073</v>
+        <v>1891434.35233</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2335263.81002</v>
+        <v>2228795.75096</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2417869.39435</v>
+        <v>2335290.94498</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3042718.97839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2426645.89703</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2624904.266</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5307.50117</v>
+        <v>4509.040099999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>7952.3365</v>
+        <v>7512.23995</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5426.741889999999</v>
+        <v>4283.663820000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>9509.356770000002</v>
+        <v>8720.20289</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>15870.61442</v>
+        <v>14837.81444</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>31352.30758</v>
+        <v>32000.56887</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>36931.83278</v>
+        <v>34916.65695</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>51541.57805</v>
+        <v>47639.215</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>67869.05692999999</v>
+        <v>69126.0088</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>88673.58959</v>
+        <v>81889.68876</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>132261.68375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>131138.65213</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>162848.701</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>48750.7079</v>
+        <v>44903.56999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>57771.62965</v>
+        <v>56750.03364</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>80166.58937</v>
+        <v>79160.37003000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>89243.06331</v>
+        <v>93864.69081</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>101845.88142</v>
+        <v>104123.79833</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>115233.89314</v>
+        <v>118099.57305</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>151661.58376</v>
+        <v>143966.17573</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>178479.35574</v>
+        <v>169455.21093</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>246132.26982</v>
+        <v>241048.1063</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>255488.23335</v>
+        <v>253825.49094</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>275524.46417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>274312.8898</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>339661.291</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>516472.83766</v>
+        <v>504325.86267</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>623965.4484399999</v>
+        <v>636371.92357</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>780455.7956299999</v>
+        <v>806822.73977</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>897817.4809300001</v>
+        <v>924657.2143000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1177295.48111</v>
+        <v>1167452.15109</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1362959.85109</v>
+        <v>1318430.55238</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1522938.96332</v>
+        <v>1471230.57629</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1756425.89694</v>
+        <v>1674339.9264</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2021262.48327</v>
+        <v>1918621.63586</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2073707.57141</v>
+        <v>1999575.76528</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2634932.83047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2021194.3551</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2122394.274</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>330805.06609</v>
+        <v>317731.89972</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>421265.22743</v>
+        <v>401650.35093</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>582465.3935199999</v>
+        <v>550927.34987</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>591488.84306</v>
+        <v>561883.18562</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>794758.34533</v>
+        <v>797398.9436699999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>784747.2486</v>
+        <v>770155.0362999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>837713.24884</v>
+        <v>842876.96312</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>909570.01922</v>
+        <v>936527.9963400001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1105200.72458</v>
+        <v>1152507.96579</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1059764.68317</v>
+        <v>1103756.1218</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>392790.03018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>889053.38835</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1609630.27</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>62351.1022</v>
+        <v>63787.55994</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>54771.83351999999</v>
+        <v>215719.44579</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>85775.64885</v>
+        <v>437371.8435200001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>76275.69151</v>
+        <v>142505.22877</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>171059.83825</v>
+        <v>387005.0379</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>165452.59161</v>
+        <v>234532.7569</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>267117.12208</v>
+        <v>317577.17978</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>344704.12774</v>
+        <v>410721.14441</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>347895.28694</v>
+        <v>509642.92982</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1549035.52836</v>
+        <v>1710099.95815</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>696674.2728100001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>911785.3560499999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3550782.538</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>13538.697</v>
+        <v>5755.80449</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2602.49761</v>
+        <v>16175.10805</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2657.17442</v>
+        <v>4766.57049</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4446.68276</v>
+        <v>9459.364220000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>16598.26855</v>
+        <v>13434.32741</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>12363.96883</v>
+        <v>48287.42908000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>16118.50957</v>
+        <v>17209.72846</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>17642.73482</v>
+        <v>43540.45164</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>19541.89743</v>
+        <v>22336.99179</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>47302.40381</v>
+        <v>43649.21669</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>22196.44675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>40679.59425</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>55484.098</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2373.4417</v>
+        <v>1873.06137</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>6895.011530000001</v>
+        <v>3191.07191</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>3462.72092</v>
+        <v>3299.9454</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>3926.90338</v>
+        <v>2858.46612</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>6792.463110000001</v>
+        <v>5510.47857</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>6382.642519999999</v>
+        <v>8182.8538</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5716.680729999999</v>
+        <v>15491.25479</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>5578.61117</v>
+        <v>14458.05678</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3883.80904</v>
+        <v>67436.95562000001</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>28156.5661</v>
+        <v>21649.99251</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>22765.50932</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>114168.41296</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>35577.359</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>12917.13155</v>
+        <v>13468.37474</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>11994.93779</v>
+        <v>23707.31027</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>14096.5516</v>
+        <v>38497.93193</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>17330.1199</v>
+        <v>26281.39731</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>25825.61378</v>
+        <v>27510.81965</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>30862.94068</v>
+        <v>34266.44374</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>38877.6516</v>
+        <v>44513.40181</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>41843.45393</v>
+        <v>49068.10272</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>48990.77808</v>
+        <v>67963.6893</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>100633.57893</v>
+        <v>115310.44543</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>110652.36593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>153679.84687</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>92630.137</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1091.87674</v>
+        <v>1205.11433</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>778.7369600000001</v>
+        <v>30987.17858</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2062.55444</v>
+        <v>1127.83761</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1343.02304</v>
+        <v>687.76785</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2644.69734</v>
+        <v>1203.76459</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3862.60412</v>
+        <v>1666.33496</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3125.55553</v>
+        <v>1410.74979</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5712.59316</v>
+        <v>2950.30388</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3201.48509</v>
+        <v>2866.18773</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3494.08513</v>
+        <v>3464.51425</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1993.07047</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2052.358</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>11201.549</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>702.4342800000001</v>
+        <v>707.4855200000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1967.86379</v>
+        <v>1998.36482</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>534.8198199999999</v>
+        <v>603.5570799999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>491.38919</v>
+        <v>605.52814</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3345.93038</v>
+        <v>3527.59911</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2557.02073</v>
+        <v>3846.82944</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1629.28135</v>
+        <v>1540.37418</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2862.5647</v>
+        <v>2761.11401</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>9184.648929999999</v>
+        <v>3790.81574</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3108.36951</v>
+        <v>4496.99967</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3519.13212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4569.36225</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>7054.973</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1957.84421</v>
+        <v>3307.79919</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1498.31643</v>
+        <v>2273.93733</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4764.35579</v>
+        <v>24522.17677</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1842.00714</v>
+        <v>1746.53364</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2343.49016</v>
+        <v>181960.60585</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2811.17699</v>
+        <v>2659.49099</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6111.544370000001</v>
+        <v>3072.80226</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4486.378060000001</v>
+        <v>2880.75616</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4696.72658</v>
+        <v>4473.113469999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4407.13479</v>
+        <v>3894.15996</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7659.48047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5874.209229999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>16423.135</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>23302.32902</v>
+        <v>25387.51739</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>22543.38346</v>
+        <v>83247.37761</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>45731.10887</v>
+        <v>333880.53806</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>32583.8868</v>
+        <v>77967.72072</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>95210.66738</v>
+        <v>134200.67438</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>77438.69282000001</v>
+        <v>107001.24522</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>164278.35356</v>
+        <v>195358.11333</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>221413.39592</v>
+        <v>243522.62482</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>223542.7719</v>
+        <v>294200.65398</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1310506.97583</v>
+        <v>1412006.76924</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>442139.71444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>496259.02372</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3217929.947</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>136.11129</v>
+        <v>184.2618</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>205.24447</v>
+        <v>160.24447</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>257.39029</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>44.9438</v>
+        <v>136.37746</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>119.04387</v>
+        <v>853.16157</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>461.74159</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>487.11742</v>
+        <v>1418.8435</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>337.37373</v>
+        <v>419.5035999999999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>668.08663</v>
+        <v>614.5946399999999</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>565.19415</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>21585.27152</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>23386.441</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>17.88987</v>
+        <v>184.58199</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>20.13758</v>
@@ -2090,274 +2141,309 @@
         <v>29.46603</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>5.044149999999999</v>
+        <v>13.68047</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>14.69551</v>
+        <v>14.17869</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>72.89547</v>
+        <v>28.40191</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>723.8989300000001</v>
+        <v>530.3954200000001</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>171.18526</v>
+        <v>13.21813</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>255.08229</v>
+        <v>255.08102</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>844.44015</v>
+        <v>525.96403</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>311.30739</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6313.34654</v>
+        <v>11713.55912</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6265.7039</v>
+        <v>53958.71517</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>12179.50667</v>
+        <v>30386.42986</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>14261.69135</v>
+        <v>22748.39284</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>18164.96817</v>
+        <v>18789.42808</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>28638.90786</v>
+        <v>28131.98617</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>30048.52902</v>
+        <v>37031.51624</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>44655.83699</v>
+        <v>51107.01267</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>33930.00097</v>
+        <v>45704.84653</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>50016.77996</v>
+        <v>104536.70222</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>63851.9744</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>72605.96986</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>91094.899</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>31236.76427</v>
+        <v>33891.51485</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>30447.42501</v>
+        <v>107963.20018</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>53707.39840999999</v>
+        <v>740854.33057</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>51701.14481000001</v>
+        <v>89568.8478</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>92741.48881</v>
+        <v>138904.56159</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>107546.94773</v>
+        <v>129734.96776</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>165817.15531</v>
+        <v>189613.64255</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>236115.91316</v>
+        <v>284856.69336</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>249918.3965</v>
+        <v>336686.12309</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1262958.89608</v>
+        <v>1463838.07559</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>479926.8114600001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>550667.23812</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3301462.381</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1630.14263</v>
+        <v>1543.13632</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>915.36538</v>
+        <v>706.3293200000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1032.12283</v>
+        <v>1068.18247</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1418.33492</v>
+        <v>1364.2961</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2773.51939</v>
+        <v>2750.70165</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2998.82268</v>
+        <v>3355.22368</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1235.194</v>
+        <v>2172.46945</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2192.35129</v>
+        <v>3285.64866</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3684.07958</v>
+        <v>3604.2021</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1825.16899</v>
+        <v>1456.6558</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5046.9487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4298.973220000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7917.363</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3497.73336</v>
+        <v>3233.30347</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2993.39089</v>
+        <v>2919.4172</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3688.31543</v>
+        <v>4182.99809</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6194.46476</v>
+        <v>5407.119519999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>8973.086569999999</v>
+        <v>7992.64069</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>14558.61891</v>
+        <v>10754.71059</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11191.92329</v>
+        <v>12223.94548</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>12461.46234</v>
+        <v>12810.15993</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>18369.89812</v>
+        <v>17773.3721</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>29036.61718</v>
+        <v>25530.01303</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>19229.57354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>20336.58048</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>18677.138</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>322.2699</v>
+        <v>334.10855</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1003.3578</v>
+        <v>1133.88995</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>574.2613</v>
+        <v>2041.74692</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>237.40218</v>
+        <v>411.82438</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>840.16629</v>
+        <v>497.83975</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>2559.92841</v>
+        <v>2617.2603</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1822.80706</v>
+        <v>307.33428</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1263.86491</v>
+        <v>348.95687</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1249.32017</v>
+        <v>474.3325</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>2726.52915</v>
+        <v>2764.82826</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2440.92264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1883.00418</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>4701.007</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>22488.0053</v>
+        <v>23663.28472</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>22964.42773</v>
+        <v>85021.27735</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>40885.6599</v>
+        <v>714097.27107</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>35872.43894000001</v>
+        <v>72975.69561</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>74956.58442999999</v>
+        <v>119900.01244</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>75054.64522999999</v>
+        <v>101075.20556</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>137819.75449</v>
+        <v>162096.85969</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>189616.42246</v>
+        <v>227839.19567</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>206842.68139</v>
+        <v>289609.1219</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1207902.63097</v>
+        <v>1411057.28824</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>409064.71915</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>483980.2544</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3240168.941</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>122.26562</v>
+        <v>110.2745</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>91.50063</v>
+        <v>91.39153999999999</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>5.86241</v>
@@ -2366,34 +2452,39 @@
         <v>53.77512</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>32.06256</v>
+        <v>368.26032</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>102.461</v>
+        <v>95.95499000000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>177.7622</v>
+        <v>378.75869</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>337.49441</v>
+        <v>962.6889100000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>763.83089</v>
+        <v>850.0391699999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>100.72286</v>
+        <v>90.43494</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>592.9630699999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>871.164</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>13.09679</v>
+        <v>25.82177</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>8.89851</v>
@@ -2408,610 +2499,688 @@
         <v>11.87105</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>86.39514</v>
+        <v>2e-05</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>132.10865</v>
+        <v>28.05404</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>84.01746</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>145.2238</v>
+        <v>145.22379</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>536.2395</v>
+        <v>535.73316</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>284.43912</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3163.25067</v>
+        <v>4981.58552</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2470.48407</v>
+        <v>18081.99631</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>7510.17475</v>
+        <v>19447.26782</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>7746.17188</v>
+        <v>9177.580059999998</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5154.19852</v>
+        <v>7383.23569</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>12186.07636</v>
+        <v>11836.61262</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13437.60562</v>
+        <v>12406.22092</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>30160.30029</v>
+        <v>39610.04332</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>18863.36255</v>
+        <v>24229.83153</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>20830.98743</v>
+        <v>22403.12216</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>43267.24524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>39291.02365</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>29126.768</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>25553.17797</v>
+        <v>31169.24807</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>24613.79645</v>
+        <v>80642.16495000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>34153.39628</v>
+        <v>123892.91199</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>47671.99536</v>
+        <v>62763.23002</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>62378.64990999999</v>
+        <v>71277.17039999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>73369.3998</v>
+        <v>82112.18586</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>91513.60137</v>
+        <v>93665.72951999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>121592.62623</v>
+        <v>125834.55467</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>155556.89981</v>
+        <v>190092.06177</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>306123.22511</v>
+        <v>290745.97808</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>285534.50056</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>276570.62911</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>334942.604</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>24131.01885</v>
+        <v>27201.84394</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>23293.05391</v>
+        <v>29069.12965</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>32633.50101</v>
+        <v>44299.46222</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>45413.81434</v>
+        <v>53243.87016000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>59762.59970000001</v>
+        <v>69146.44009</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>69343.97457999999</v>
+        <v>77669.25394</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>86587.63119</v>
+        <v>88186.39605</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>118162.45757</v>
+        <v>121807.66613</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>151178.66674</v>
+        <v>185372.61616</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>285277.26065</v>
+        <v>281555.06709</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>269909.83606</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>268018.74494</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>283656.031</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1422.15912</v>
+        <v>3967.40413</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1320.74254</v>
+        <v>51573.0353</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1519.89527</v>
+        <v>79593.44977000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2258.18102</v>
+        <v>9519.35986</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2616.05021</v>
+        <v>2130.73031</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4025.42522</v>
+        <v>4442.93192</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4925.970179999999</v>
+        <v>5479.33347</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3430.16866</v>
+        <v>4026.88854</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4378.23307</v>
+        <v>4719.445610000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>20845.96446</v>
+        <v>9190.91099</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>15624.6645</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>8551.884169999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>51286.573</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>336366.22605</v>
+        <v>316458.69674</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>420975.83949</v>
+        <v>428764.43159</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>580380.2476799999</v>
+        <v>123551.95083</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>568391.3944</v>
+        <v>552056.33657</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>810698.04486</v>
+        <v>974222.2495799999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>769283.4926799999</v>
+        <v>792840.6395800001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>847499.61424</v>
+        <v>877174.7708300001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>896565.6075700001</v>
+        <v>936557.89272</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1047620.71521</v>
+        <v>1135372.71075</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1039718.09034</v>
+        <v>1059272.02628</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>324002.99097</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>973600.8771700001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1524007.823</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15515.95092</v>
+        <v>16722.08744</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>20437.27652</v>
+        <v>28527.26676</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>22102.88757</v>
+        <v>56397.14713</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>33399.29829</v>
+        <v>49581.01027</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>45386.20765</v>
+        <v>68386.22225000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>65854.42075</v>
+        <v>60679.51004</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>83747.21665999999</v>
+        <v>69431.54394</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>98325.72841</v>
+        <v>102636.44107</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>134405.7192</v>
+        <v>115020.37101</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>174787.81703</v>
+        <v>136832.44052</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>173657.14525</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>145189.9287</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>241364.783</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>482.8972900000001</v>
+        <v>303.48179</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>606.2648399999999</v>
+        <v>457.43832</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>758.3863400000001</v>
+        <v>1088.91697</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>563.47292</v>
+        <v>413.78653</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>987.58136</v>
+        <v>1293.15082</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>868.11574</v>
+        <v>1361.1686</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>812.5324899999999</v>
+        <v>854.2458800000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3466.40539</v>
+        <v>3384.51382</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2247.40009</v>
+        <v>2463.22558</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>12412.5354</v>
+        <v>1427.81295</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2944.72678</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1925.00751</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>17521.911</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>15033.05363</v>
+        <v>16418.60565</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>19831.01168</v>
+        <v>28069.82844</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>21344.50123</v>
+        <v>55308.23016000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>32835.82537</v>
+        <v>49167.22373999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>44398.62629</v>
+        <v>67093.07143000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>64986.30501</v>
+        <v>59318.34144</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>82934.68417000001</v>
+        <v>68577.29806</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>94859.32302000001</v>
+        <v>99251.92724999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>132158.31911</v>
+        <v>112557.14543</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>162375.28163</v>
+        <v>135404.62757</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>170712.41847</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>143264.92119</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>223842.872</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>26333.13835</v>
+        <v>24250.5996</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>29591.70768</v>
+        <v>30201.78069</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>635266.9161499999</v>
+        <v>652527.5547400001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>46600.10126</v>
+        <v>51311.04594</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>53347.22584</v>
+        <v>51922.15867</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>344426.98375</v>
+        <v>336109.1713400001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>76344.42696000001</v>
+        <v>69512.01938000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>579349.29471</v>
+        <v>440733.26519</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>122980.50064</v>
+        <v>109000.51041</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>461570.20761</v>
+        <v>434115.16605</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>138600.45195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>131562.47588</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>187444.023</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>494.48548</v>
+        <v>535.3289299999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>552.7378200000001</v>
+        <v>350.72263</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>999.56699</v>
+        <v>1226.45079</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>696.81775</v>
+        <v>343.76591</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>740.72766</v>
+        <v>635.16229</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>616.7744500000001</v>
+        <v>221.79638</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>572.3756500000001</v>
+        <v>412.78278</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1322.22706</v>
+        <v>2623.00685</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>637.06029</v>
+        <v>247.61193</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>321.37149</v>
+        <v>95.07835</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>525.8773299999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>453.4866</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>527.735</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1761.88704</v>
+        <v>1352.58904</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2899.16034</v>
+        <v>2503.35686</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7190.46575</v>
+        <v>4225.32125</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4240.19792</v>
+        <v>5351.67975</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3743.80957</v>
+        <v>4104.39011</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5791.54825</v>
+        <v>9849.29292</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5361.14753</v>
+        <v>4837.636630000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5457.75219</v>
+        <v>5055.21399</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4012.53059</v>
+        <v>4507.3674</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>15981.19752</v>
+        <v>3291.51423</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6756.86778</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5098.841260000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>15190.348</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>24076.76583</v>
+        <v>22362.68163</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>26139.80952</v>
+        <v>27347.7012</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>627076.88341</v>
+        <v>647075.7827000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>41663.08559</v>
+        <v>45615.60028</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>48862.68861</v>
+        <v>47182.60627</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>338018.6610499999</v>
+        <v>326038.08204</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>70410.90378000001</v>
+        <v>64261.59997</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>572569.3154600001</v>
+        <v>433055.04435</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>118330.90976</v>
+        <v>104245.53108</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>445267.6386</v>
+        <v>430728.5734699999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>131317.70684</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>126010.14802</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>171725.94</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>325549.03862</v>
+        <v>308930.18458</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>411821.40833</v>
+        <v>427089.91766</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-32783.78090000001</v>
+        <v>-472578.4567799999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>555190.59143</v>
+        <v>550326.3009</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>802737.0266700001</v>
+        <v>990686.31316</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>490710.92968</v>
+        <v>517410.97828</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>854902.4039400001</v>
+        <v>877094.29539</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>415542.04127</v>
+        <v>598461.0686</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1059045.93377</v>
+        <v>1141392.57135</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>752935.69976</v>
+        <v>761989.3007500001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>359059.68427</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>987228.32999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1577928.583</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>63399.44716999999</v>
+        <v>60329.36445</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>78890.59314999999</v>
+        <v>78143.8268</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>101183.31247</v>
+        <v>100232.98774</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>106643.76498</v>
+        <v>104704.39564</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>148912.65099</v>
+        <v>146274.78839</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>146845.54854</v>
+        <v>148815.77328</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>167835.41571</v>
+        <v>164161.7145</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>190486.61292</v>
+        <v>188875.36207</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>215729.2572</v>
+        <v>221954.7958</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>250904.57642</v>
+        <v>260658.1476</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>217958.98397</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>234539.35957</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>323094.476</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>262149.59145</v>
+        <v>248600.82013</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>332930.81518</v>
+        <v>348946.09086</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-133967.09337</v>
+        <v>-572811.44452</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>448546.82645</v>
+        <v>445621.90526</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>653824.3756800001</v>
+        <v>844411.52477</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>343865.38114</v>
+        <v>368595.205</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>687066.98823</v>
+        <v>712932.58089</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>225055.42835</v>
+        <v>409585.70653</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>843316.6765699999</v>
+        <v>919437.7755499999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>502031.12334</v>
+        <v>501331.15315</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>141100.7003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>752688.97042</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1254834.107</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2216</v>
+        <v>1859</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2593</v>
+        <v>2146</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3060</v>
+        <v>2554</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3799</v>
+        <v>3191</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4756</v>
+        <v>3834</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5433</v>
+        <v>4266</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6110</v>
+        <v>4690</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6730</v>
+        <v>5029</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>7754</v>
+        <v>5636</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5268</v>
+        <v>4429</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4979</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3973</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>